--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130822178</v>
       </c>
       <c r="B2" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130822176</v>
+        <v>130822165</v>
       </c>
       <c r="B3" t="n">
-        <v>91800</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423906</v>
+        <v>423776</v>
       </c>
       <c r="R3" t="n">
-        <v>7049117</v>
+        <v>7049067</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -848,6 +848,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -874,10 +879,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130822165</v>
+        <v>130822176</v>
       </c>
       <c r="B4" t="n">
-        <v>57880</v>
+        <v>91804</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,21 +890,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -909,10 +914,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>423776</v>
+        <v>423906</v>
       </c>
       <c r="R4" t="n">
-        <v>7049067</v>
+        <v>7049117</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -945,11 +950,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -976,10 +976,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130823164</v>
+        <v>130822161</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,37 +987,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>423807</v>
+        <v>423797</v>
       </c>
       <c r="R5" t="n">
-        <v>7049107</v>
+        <v>7049125</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1054,7 +1051,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1063,44 +1060,18 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1110,7 +1081,7 @@
         <v>130822157</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1209,10 +1180,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130822161</v>
+        <v>130823164</v>
       </c>
       <c r="B7" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,34 +1191,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>423797</v>
+        <v>423807</v>
       </c>
       <c r="R7" t="n">
-        <v>7049125</v>
+        <v>7049107</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1284,7 +1258,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Relativt rikligt med garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1293,18 +1267,44 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
         <v>130823162</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>130823161</v>
       </c>
       <c r="B9" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1573,10 +1573,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130823153</v>
+        <v>130823155</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423817</v>
+        <v>423787</v>
       </c>
       <c r="R10" t="n">
-        <v>7049177</v>
+        <v>7049107</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1671,11 +1671,6 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1713,10 +1708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130823155</v>
+        <v>130823153</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1756,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>423787</v>
+        <v>423817</v>
       </c>
       <c r="R11" t="n">
-        <v>7049107</v>
+        <v>7049177</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,7 +1791,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1811,6 +1806,11 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -1851,7 +1851,7 @@
         <v>130823163</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1982,7 +1982,7 @@
         <v>130823151</v>
       </c>
       <c r="B13" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2117,7 +2117,7 @@
         <v>130823159</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130823154</v>
+        <v>130823160</v>
       </c>
       <c r="B15" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2256,31 +2256,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2288,10 +2283,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>423791</v>
+        <v>423881</v>
       </c>
       <c r="R15" t="n">
-        <v>7049103</v>
+        <v>7049037</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2328,7 +2323,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2337,6 +2332,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2357,12 +2353,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130823160</v>
+        <v>130823154</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2391,26 +2387,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2418,10 +2419,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>423881</v>
+        <v>423791</v>
       </c>
       <c r="R16" t="n">
-        <v>7049037</v>
+        <v>7049103</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2467,7 +2468,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130822162</v>
+        <v>130823157</v>
       </c>
       <c r="B17" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2540,16 +2540,24 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>423784</v>
+        <v>423749</v>
       </c>
       <c r="R17" t="n">
-        <v>7049096</v>
+        <v>7049126</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2586,7 +2594,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, färska och äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2597,26 +2605,51 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130823157</v>
+        <v>130822162</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2642,24 +2675,16 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>423749</v>
+        <v>423784</v>
       </c>
       <c r="R18" t="n">
-        <v>7049126</v>
+        <v>7049096</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2696,7 +2721,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2707,51 +2732,26 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130822180</v>
+        <v>130823158</v>
       </c>
       <c r="B19" t="n">
-        <v>91800</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,34 +2759,33 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423732</v>
+        <v>423730</v>
       </c>
       <c r="R19" t="n">
-        <v>7049150</v>
+        <v>7049088</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2821,34 +2820,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130822182</v>
+        <v>130822180</v>
       </c>
       <c r="B20" t="n">
-        <v>91800</v>
+        <v>91804</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2880,10 +2910,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423748</v>
+        <v>423732</v>
       </c>
       <c r="R20" t="n">
-        <v>7049159</v>
+        <v>7049150</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2942,10 +2972,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130823169</v>
+        <v>130822182</v>
       </c>
       <c r="B21" t="n">
-        <v>79239</v>
+        <v>91804</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2953,37 +2983,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423752</v>
+        <v>423748</v>
       </c>
       <c r="R21" t="n">
-        <v>7049166</v>
+        <v>7049159</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3018,65 +3045,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130823156</v>
+        <v>130823169</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3084,31 +3080,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3116,10 +3107,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423747</v>
+        <v>423752</v>
       </c>
       <c r="R22" t="n">
-        <v>7049131</v>
+        <v>7049166</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3156,7 +3147,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3165,6 +3156,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3185,12 +3177,12 @@
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3208,10 +3200,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130823158</v>
+        <v>130823156</v>
       </c>
       <c r="B23" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3219,22 +3211,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3242,10 +3243,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423730</v>
+        <v>423747</v>
       </c>
       <c r="R23" t="n">
-        <v>7049088</v>
+        <v>7049131</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3282,7 +3283,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3291,7 +3292,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3338,7 +3338,7 @@
         <v>130823150</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3473,7 +3473,7 @@
         <v>130822170</v>
       </c>
       <c r="B25" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3575,7 +3575,7 @@
         <v>130822163</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3674,10 +3674,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130822160</v>
+        <v>130822155</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>423800</v>
+        <v>424042</v>
       </c>
       <c r="R27" t="n">
-        <v>7049140</v>
+        <v>7049125</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,10 +3776,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130822155</v>
+        <v>130822172</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>424042</v>
+        <v>423678</v>
       </c>
       <c r="R28" t="n">
-        <v>7049125</v>
+        <v>7048965</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130822172</v>
+        <v>130822160</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>423678</v>
+        <v>423800</v>
       </c>
       <c r="R29" t="n">
-        <v>7048965</v>
+        <v>7049140</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3983,7 +3983,7 @@
         <v>130823168</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         <v>130823167</v>
       </c>
       <c r="B31" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130822154</v>
+        <v>130823152</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4271,16 +4271,24 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423964</v>
+        <v>423916</v>
       </c>
       <c r="R32" t="n">
-        <v>7049137</v>
+        <v>7049107</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4317,7 +4325,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4328,26 +4336,51 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130823152</v>
+        <v>130822159</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4373,24 +4406,16 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423916</v>
+        <v>423805</v>
       </c>
       <c r="R33" t="n">
-        <v>7049107</v>
+        <v>7049145</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4427,7 +4452,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4438,41 +4463,16 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
@@ -4482,7 +4482,7 @@
         <v>130822158</v>
       </c>
       <c r="B34" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4581,10 +4581,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130822159</v>
+        <v>130822154</v>
       </c>
       <c r="B35" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4616,10 +4616,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423805</v>
+        <v>423964</v>
       </c>
       <c r="R35" t="n">
-        <v>7049145</v>
+        <v>7049137</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4656,7 +4656,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4686,7 +4686,7 @@
         <v>130822153</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>130822164</v>
       </c>
       <c r="B37" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130822165</v>
+        <v>130822176</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423776</v>
+        <v>423906</v>
       </c>
       <c r="R3" t="n">
-        <v>7049067</v>
+        <v>7049117</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -848,11 +848,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -879,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130822176</v>
+        <v>130822165</v>
       </c>
       <c r="B4" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -914,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>423906</v>
+        <v>423776</v>
       </c>
       <c r="R4" t="n">
-        <v>7049117</v>
+        <v>7049067</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -950,6 +945,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130823155</v>
+        <v>130823153</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423787</v>
+        <v>423817</v>
       </c>
       <c r="R10" t="n">
-        <v>7049107</v>
+        <v>7049177</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1671,6 +1671,11 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1708,7 +1713,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130823153</v>
+        <v>130823155</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1751,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>423817</v>
+        <v>423787</v>
       </c>
       <c r="R11" t="n">
-        <v>7049177</v>
+        <v>7049107</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1791,7 +1796,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1806,11 +1811,6 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -2748,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130823158</v>
+        <v>130822180</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,33 +2759,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423730</v>
+        <v>423732</v>
       </c>
       <c r="R19" t="n">
-        <v>7049088</v>
+        <v>7049150</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2820,62 +2821,31 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130822180</v>
+        <v>130822182</v>
       </c>
       <c r="B20" t="n">
         <v>91804</v>
@@ -2910,10 +2880,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423732</v>
+        <v>423748</v>
       </c>
       <c r="R20" t="n">
-        <v>7049150</v>
+        <v>7049159</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2972,10 +2942,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130822182</v>
+        <v>130823158</v>
       </c>
       <c r="B21" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2983,34 +2953,33 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423748</v>
+        <v>423730</v>
       </c>
       <c r="R21" t="n">
-        <v>7049159</v>
+        <v>7049088</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3045,24 +3014,55 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130823152</v>
+        <v>130822159</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4271,24 +4271,16 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423916</v>
+        <v>423805</v>
       </c>
       <c r="R32" t="n">
-        <v>7049107</v>
+        <v>7049145</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4336,48 +4328,23 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130822159</v>
+        <v>130822158</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4412,10 +4379,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423805</v>
+        <v>423797</v>
       </c>
       <c r="R33" t="n">
-        <v>7049145</v>
+        <v>7049151</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4452,7 +4419,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4479,7 +4446,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130822158</v>
+        <v>130822154</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4514,10 +4481,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423797</v>
+        <v>423964</v>
       </c>
       <c r="R34" t="n">
-        <v>7049151</v>
+        <v>7049137</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4581,7 +4548,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130822154</v>
+        <v>130823152</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4610,16 +4577,24 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423964</v>
+        <v>423916</v>
       </c>
       <c r="R35" t="n">
-        <v>7049137</v>
+        <v>7049107</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4656,7 +4631,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4667,16 +4642,41 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -976,7 +976,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130822161</v>
+        <v>130822157</v>
       </c>
       <c r="B5" t="n">
         <v>57884</v>
@@ -1011,10 +1011,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>423797</v>
+        <v>423796</v>
       </c>
       <c r="R5" t="n">
-        <v>7049125</v>
+        <v>7049158</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1078,7 +1078,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130822157</v>
+        <v>130822161</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1113,10 +1113,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>423796</v>
+        <v>423797</v>
       </c>
       <c r="R6" t="n">
-        <v>7049158</v>
+        <v>7049125</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1848,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130823163</v>
+        <v>130823151</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,26 +1859,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1886,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>423854</v>
+        <v>423970</v>
       </c>
       <c r="R12" t="n">
-        <v>7049136</v>
+        <v>7049090</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,7 +1931,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,7 +1940,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1956,12 +1960,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1979,10 +1983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130823151</v>
+        <v>130823163</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1990,31 +1994,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2022,10 +2021,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>423970</v>
+        <v>423854</v>
       </c>
       <c r="R13" t="n">
-        <v>7049090</v>
+        <v>7049136</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2062,7 +2061,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,6 +2070,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130823160</v>
+        <v>130823154</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2256,26 +2256,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2283,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>423881</v>
+        <v>423791</v>
       </c>
       <c r="R15" t="n">
-        <v>7049037</v>
+        <v>7049103</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2323,7 +2328,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2332,7 +2337,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2353,12 +2357,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2376,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130823154</v>
+        <v>130823160</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2387,31 +2391,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2419,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>423791</v>
+        <v>423881</v>
       </c>
       <c r="R16" t="n">
-        <v>7049103</v>
+        <v>7049037</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2459,7 +2458,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2468,6 +2467,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>130823157</v>
+        <v>130822162</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2540,24 +2540,16 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>423749</v>
+        <v>423784</v>
       </c>
       <c r="R17" t="n">
-        <v>7049126</v>
+        <v>7049096</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2594,7 +2586,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2605,48 +2597,23 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>130822162</v>
+        <v>130823157</v>
       </c>
       <c r="B18" t="n">
         <v>57884</v>
@@ -2675,16 +2642,24 @@
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>423784</v>
+        <v>423749</v>
       </c>
       <c r="R18" t="n">
-        <v>7049096</v>
+        <v>7049126</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2721,7 +2696,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, färska och äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2732,26 +2707,51 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AH18" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130822180</v>
+        <v>130823158</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,34 +2759,33 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423732</v>
+        <v>423730</v>
       </c>
       <c r="R19" t="n">
-        <v>7049150</v>
+        <v>7049088</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2821,34 +2820,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130822182</v>
+        <v>130823169</v>
       </c>
       <c r="B20" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2856,34 +2886,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423748</v>
+        <v>423752</v>
       </c>
       <c r="R20" t="n">
-        <v>7049159</v>
+        <v>7049166</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2918,34 +2951,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Hyfsad mängd bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130823158</v>
+        <v>130822180</v>
       </c>
       <c r="B21" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2953,33 +3017,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423730</v>
+        <v>423732</v>
       </c>
       <c r="R21" t="n">
-        <v>7049088</v>
+        <v>7049150</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3014,65 +3079,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130823169</v>
+        <v>130822182</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3080,37 +3114,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423752</v>
+        <v>423748</v>
       </c>
       <c r="R22" t="n">
-        <v>7049166</v>
+        <v>7049159</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3145,55 +3176,24 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130822155</v>
+        <v>130822160</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>424042</v>
+        <v>423800</v>
       </c>
       <c r="R27" t="n">
-        <v>7049125</v>
+        <v>7049140</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130822172</v>
+        <v>130822155</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>423678</v>
+        <v>424042</v>
       </c>
       <c r="R28" t="n">
-        <v>7048965</v>
+        <v>7049125</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130822160</v>
+        <v>130822172</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>423800</v>
+        <v>423678</v>
       </c>
       <c r="R29" t="n">
-        <v>7049140</v>
+        <v>7048965</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130823167</v>
+        <v>130822158</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4122,37 +4122,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423730</v>
+        <v>423797</v>
       </c>
       <c r="R31" t="n">
-        <v>7049099</v>
+        <v>7049151</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4189,7 +4186,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Relativt rikligt med bålar på flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4198,44 +4195,18 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -4344,7 +4315,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130822158</v>
+        <v>130822154</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4379,10 +4350,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423797</v>
+        <v>423964</v>
       </c>
       <c r="R33" t="n">
-        <v>7049151</v>
+        <v>7049137</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4446,7 +4417,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130822154</v>
+        <v>130823152</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4475,16 +4446,24 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423964</v>
+        <v>423916</v>
       </c>
       <c r="R34" t="n">
-        <v>7049137</v>
+        <v>7049107</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4521,7 +4500,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4532,26 +4511,51 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130823152</v>
+        <v>130823167</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4559,31 +4563,26 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
@@ -4591,10 +4590,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423916</v>
+        <v>423730</v>
       </c>
       <c r="R35" t="n">
-        <v>7049107</v>
+        <v>7049099</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4631,7 +4630,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Relativt rikligt med bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4640,6 +4639,7 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
       </c>
@@ -4660,12 +4660,12 @@
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130822176</v>
+        <v>130822165</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423906</v>
+        <v>423776</v>
       </c>
       <c r="R3" t="n">
-        <v>7049117</v>
+        <v>7049067</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -848,6 +848,11 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -874,10 +879,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130822165</v>
+        <v>130822176</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,21 +890,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -909,10 +914,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>423776</v>
+        <v>423906</v>
       </c>
       <c r="R4" t="n">
-        <v>7049067</v>
+        <v>7049117</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -945,11 +950,6 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -4111,7 +4111,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130822158</v>
+        <v>130822154</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423797</v>
+        <v>423964</v>
       </c>
       <c r="R31" t="n">
-        <v>7049151</v>
+        <v>7049137</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4213,7 +4213,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130822159</v>
+        <v>130823152</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4242,16 +4242,24 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423805</v>
+        <v>423916</v>
       </c>
       <c r="R32" t="n">
-        <v>7049145</v>
+        <v>7049107</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4288,7 +4296,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4299,23 +4307,48 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130822154</v>
+        <v>130822158</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4350,10 +4383,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423964</v>
+        <v>423797</v>
       </c>
       <c r="R33" t="n">
-        <v>7049137</v>
+        <v>7049151</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4417,7 +4450,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130823152</v>
+        <v>130822159</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4446,24 +4479,16 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423916</v>
+        <v>423805</v>
       </c>
       <c r="R34" t="n">
-        <v>7049107</v>
+        <v>7049145</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4500,7 +4525,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4511,41 +4536,16 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -1078,10 +1078,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130822161</v>
+        <v>130823164</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,34 +1089,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>423797</v>
+        <v>423807</v>
       </c>
       <c r="R6" t="n">
-        <v>7049125</v>
+        <v>7049107</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1153,7 +1156,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Relativt rikligt med garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1162,28 +1165,54 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130823164</v>
+        <v>130822161</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1191,37 +1220,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>423807</v>
+        <v>423797</v>
       </c>
       <c r="R7" t="n">
-        <v>7049107</v>
+        <v>7049125</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1258,7 +1284,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1267,44 +1293,18 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130823153</v>
+        <v>130823155</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423817</v>
+        <v>423787</v>
       </c>
       <c r="R10" t="n">
-        <v>7049177</v>
+        <v>7049107</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1671,11 +1671,6 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1713,7 +1708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130823155</v>
+        <v>130823153</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1756,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>423787</v>
+        <v>423817</v>
       </c>
       <c r="R11" t="n">
-        <v>7049107</v>
+        <v>7049177</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,7 +1791,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1811,6 +1806,11 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -1848,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130823151</v>
+        <v>130823163</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,31 +1859,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1891,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>423970</v>
+        <v>423854</v>
       </c>
       <c r="R12" t="n">
-        <v>7049090</v>
+        <v>7049136</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,7 +1926,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1940,6 +1935,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1960,12 +1956,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1983,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130823163</v>
+        <v>130823151</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1994,26 +1990,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2021,10 +2022,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>423854</v>
+        <v>423970</v>
       </c>
       <c r="R13" t="n">
-        <v>7049136</v>
+        <v>7049090</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2061,7 +2062,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2070,7 +2071,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130823154</v>
+        <v>130823160</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2256,31 +2256,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2288,10 +2283,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>423791</v>
+        <v>423881</v>
       </c>
       <c r="R15" t="n">
-        <v>7049103</v>
+        <v>7049037</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2328,7 +2323,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2337,6 +2332,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2357,12 +2353,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130823160</v>
+        <v>130823154</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2391,26 +2387,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2418,10 +2419,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>423881</v>
+        <v>423791</v>
       </c>
       <c r="R16" t="n">
-        <v>7049037</v>
+        <v>7049103</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2467,7 +2468,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130823158</v>
+        <v>130822182</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,33 +2759,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423730</v>
+        <v>423748</v>
       </c>
       <c r="R19" t="n">
-        <v>7049088</v>
+        <v>7049159</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2820,65 +2821,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130823169</v>
+        <v>130822180</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2886,37 +2856,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423752</v>
+        <v>423732</v>
       </c>
       <c r="R20" t="n">
-        <v>7049166</v>
+        <v>7049150</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2951,65 +2918,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130822180</v>
+        <v>130823156</v>
       </c>
       <c r="B21" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3017,34 +2953,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423732</v>
+        <v>423747</v>
       </c>
       <c r="R21" t="n">
-        <v>7049150</v>
+        <v>7049131</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3079,6 +3023,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
@@ -3087,26 +3036,51 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130822182</v>
+        <v>130823158</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3114,34 +3088,33 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423748</v>
+        <v>423730</v>
       </c>
       <c r="R22" t="n">
-        <v>7049159</v>
+        <v>7049088</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3176,34 +3149,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130823156</v>
+        <v>130823169</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3211,31 +3215,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3243,10 +3242,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423747</v>
+        <v>423752</v>
       </c>
       <c r="R23" t="n">
-        <v>7049131</v>
+        <v>7049166</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3283,7 +3282,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3292,6 +3291,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130822154</v>
+        <v>130823167</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4122,34 +4122,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423964</v>
+        <v>423730</v>
       </c>
       <c r="R31" t="n">
-        <v>7049137</v>
+        <v>7049099</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4186,7 +4189,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Relativt rikligt med bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4195,25 +4198,51 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130823152</v>
+        <v>130822154</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4242,24 +4271,16 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423916</v>
+        <v>423964</v>
       </c>
       <c r="R32" t="n">
-        <v>7049107</v>
+        <v>7049137</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4296,7 +4317,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4307,48 +4328,23 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130822158</v>
+        <v>130823152</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4377,16 +4373,24 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423797</v>
+        <v>423916</v>
       </c>
       <c r="R33" t="n">
-        <v>7049151</v>
+        <v>7049107</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4423,7 +4427,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4434,23 +4438,48 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130822159</v>
+        <v>130822158</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4485,10 +4514,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423805</v>
+        <v>423797</v>
       </c>
       <c r="R34" t="n">
-        <v>7049145</v>
+        <v>7049151</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4525,7 +4554,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4552,10 +4581,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130823167</v>
+        <v>130822159</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4563,37 +4592,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423730</v>
+        <v>423805</v>
       </c>
       <c r="R35" t="n">
-        <v>7049099</v>
+        <v>7049145</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4630,7 +4656,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Relativt rikligt med bålar på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4639,44 +4665,18 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -976,10 +976,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130822157</v>
+        <v>130823164</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,34 +987,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>423796</v>
+        <v>423807</v>
       </c>
       <c r="R5" t="n">
-        <v>7049158</v>
+        <v>7049107</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Relativt rikligt med garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1060,28 +1063,54 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130823164</v>
+        <v>130822161</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1089,37 +1118,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>423807</v>
+        <v>423797</v>
       </c>
       <c r="R6" t="n">
-        <v>7049107</v>
+        <v>7049125</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1156,7 +1182,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1165,51 +1191,25 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130822161</v>
+        <v>130822157</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>423797</v>
+        <v>423796</v>
       </c>
       <c r="R7" t="n">
-        <v>7049125</v>
+        <v>7049158</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130823160</v>
+        <v>130823154</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2256,26 +2256,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2283,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>423881</v>
+        <v>423791</v>
       </c>
       <c r="R15" t="n">
-        <v>7049037</v>
+        <v>7049103</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2323,7 +2328,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2332,7 +2337,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2353,12 +2357,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2376,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130823154</v>
+        <v>130823160</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2387,31 +2391,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2419,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>423791</v>
+        <v>423881</v>
       </c>
       <c r="R16" t="n">
-        <v>7049103</v>
+        <v>7049037</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2459,7 +2458,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2468,6 +2467,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130822182</v>
+        <v>130823158</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,34 +2759,33 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423748</v>
+        <v>423730</v>
       </c>
       <c r="R19" t="n">
-        <v>7049159</v>
+        <v>7049088</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2821,34 +2820,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130822180</v>
+        <v>130823169</v>
       </c>
       <c r="B20" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2856,34 +2886,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423732</v>
+        <v>423752</v>
       </c>
       <c r="R20" t="n">
-        <v>7049150</v>
+        <v>7049166</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2918,24 +2951,55 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Hyfsad mängd bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
@@ -3077,10 +3141,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130823158</v>
+        <v>130822180</v>
       </c>
       <c r="B22" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3088,33 +3152,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423730</v>
+        <v>423732</v>
       </c>
       <c r="R22" t="n">
-        <v>7049088</v>
+        <v>7049150</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3149,65 +3214,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130823169</v>
+        <v>130822182</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3215,37 +3249,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423752</v>
+        <v>423748</v>
       </c>
       <c r="R23" t="n">
-        <v>7049166</v>
+        <v>7049159</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3280,62 +3311,31 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130823150</v>
+        <v>130822170</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3364,24 +3364,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>423989</v>
+        <v>423780</v>
       </c>
       <c r="R24" t="n">
-        <v>7049100</v>
+        <v>7049026</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3418,7 +3410,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3429,48 +3421,23 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130822170</v>
+        <v>130823150</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3499,16 +3466,24 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>423780</v>
+        <v>423989</v>
       </c>
       <c r="R25" t="n">
-        <v>7049026</v>
+        <v>7049100</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3545,7 +3520,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3556,16 +3531,41 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130822160</v>
+        <v>130822155</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>423800</v>
+        <v>424042</v>
       </c>
       <c r="R27" t="n">
-        <v>7049140</v>
+        <v>7049125</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130822155</v>
+        <v>130822172</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>424042</v>
+        <v>423678</v>
       </c>
       <c r="R28" t="n">
-        <v>7049125</v>
+        <v>7048965</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130822172</v>
+        <v>130822160</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>423678</v>
+        <v>423800</v>
       </c>
       <c r="R29" t="n">
-        <v>7048965</v>
+        <v>7049140</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130823167</v>
+        <v>130822159</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4122,37 +4122,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423730</v>
+        <v>423805</v>
       </c>
       <c r="R31" t="n">
-        <v>7049099</v>
+        <v>7049145</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4189,7 +4186,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Relativt rikligt med bålar på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4198,51 +4195,25 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130822154</v>
+        <v>130822158</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4277,10 +4248,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423964</v>
+        <v>423797</v>
       </c>
       <c r="R32" t="n">
-        <v>7049137</v>
+        <v>7049151</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4344,7 +4315,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130823152</v>
+        <v>130822154</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4373,24 +4344,16 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423916</v>
+        <v>423964</v>
       </c>
       <c r="R33" t="n">
-        <v>7049107</v>
+        <v>7049137</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4427,7 +4390,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4438,48 +4401,23 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130822158</v>
+        <v>130823152</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4508,16 +4446,24 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423797</v>
+        <v>423916</v>
       </c>
       <c r="R34" t="n">
-        <v>7049151</v>
+        <v>7049107</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4554,7 +4500,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4565,26 +4511,51 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130822159</v>
+        <v>130823167</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4592,34 +4563,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423805</v>
+        <v>423730</v>
       </c>
       <c r="R35" t="n">
-        <v>7049145</v>
+        <v>7049099</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4656,7 +4630,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Relativt rikligt med bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4665,18 +4639,44 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -777,10 +777,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130822165</v>
+        <v>130822176</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,21 +788,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>423776</v>
+        <v>423906</v>
       </c>
       <c r="R3" t="n">
-        <v>7049067</v>
+        <v>7049117</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -848,11 +848,6 @@
       <c r="AA3" t="inlineStr">
         <is>
           <t>2026-01-21</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -879,10 +874,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>130822176</v>
+        <v>130822165</v>
       </c>
       <c r="B4" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -890,21 +885,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -914,10 +909,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>423906</v>
+        <v>423776</v>
       </c>
       <c r="R4" t="n">
-        <v>7049117</v>
+        <v>7049067</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -950,6 +945,11 @@
       <c r="AA4" t="inlineStr">
         <is>
           <t>2026-01-21</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1107,7 +1107,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>130822161</v>
+        <v>130822157</v>
       </c>
       <c r="B6" t="n">
         <v>57884</v>
@@ -1142,10 +1142,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>423797</v>
+        <v>423796</v>
       </c>
       <c r="R6" t="n">
-        <v>7049125</v>
+        <v>7049158</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1182,7 +1182,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1209,7 +1209,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130822157</v>
+        <v>130822161</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1244,10 +1244,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>423796</v>
+        <v>423797</v>
       </c>
       <c r="R7" t="n">
-        <v>7049158</v>
+        <v>7049125</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130823155</v>
+        <v>130823153</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423787</v>
+        <v>423817</v>
       </c>
       <c r="R10" t="n">
-        <v>7049107</v>
+        <v>7049177</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1671,6 +1671,11 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1708,7 +1713,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130823153</v>
+        <v>130823155</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1751,10 +1756,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>423817</v>
+        <v>423787</v>
       </c>
       <c r="R11" t="n">
-        <v>7049177</v>
+        <v>7049107</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1791,7 +1796,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1806,11 +1811,6 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
-        <is>
-          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -1848,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130823163</v>
+        <v>130823151</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,26 +1859,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1886,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>423854</v>
+        <v>423970</v>
       </c>
       <c r="R12" t="n">
-        <v>7049136</v>
+        <v>7049090</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,7 +1931,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,7 +1940,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1956,12 +1960,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1979,10 +1983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130823151</v>
+        <v>130823163</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1990,31 +1994,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2022,10 +2021,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>423970</v>
+        <v>423854</v>
       </c>
       <c r="R13" t="n">
-        <v>7049090</v>
+        <v>7049136</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2062,7 +2061,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,6 +2070,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130823154</v>
+        <v>130823160</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2256,31 +2256,26 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2288,10 +2283,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>423791</v>
+        <v>423881</v>
       </c>
       <c r="R15" t="n">
-        <v>7049103</v>
+        <v>7049037</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2328,7 +2323,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2337,6 +2332,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2357,12 +2353,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2380,10 +2376,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130823160</v>
+        <v>130823154</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2391,26 +2387,31 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2418,10 +2419,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>423881</v>
+        <v>423791</v>
       </c>
       <c r="R16" t="n">
-        <v>7049037</v>
+        <v>7049103</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2458,7 +2459,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2467,7 +2468,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130823158</v>
+        <v>130822182</v>
       </c>
       <c r="B19" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,33 +2759,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423730</v>
+        <v>423748</v>
       </c>
       <c r="R19" t="n">
-        <v>7049088</v>
+        <v>7049159</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2820,65 +2821,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130823169</v>
+        <v>130823158</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2886,23 +2856,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -2913,10 +2879,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423752</v>
+        <v>423730</v>
       </c>
       <c r="R20" t="n">
-        <v>7049166</v>
+        <v>7049088</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2953,7 +2919,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2983,12 +2949,12 @@
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr"/>
@@ -3238,10 +3204,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130822182</v>
+        <v>130823169</v>
       </c>
       <c r="B23" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3249,34 +3215,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423748</v>
+        <v>423752</v>
       </c>
       <c r="R23" t="n">
-        <v>7049159</v>
+        <v>7049166</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3311,31 +3280,62 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Hyfsad mängd bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130822170</v>
+        <v>130823150</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3364,16 +3364,24 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>423780</v>
+        <v>423989</v>
       </c>
       <c r="R24" t="n">
-        <v>7049026</v>
+        <v>7049100</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3410,7 +3418,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3421,23 +3429,48 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130823150</v>
+        <v>130822170</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3466,24 +3499,16 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>423989</v>
+        <v>423780</v>
       </c>
       <c r="R25" t="n">
-        <v>7049100</v>
+        <v>7049026</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3520,7 +3545,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3531,41 +3556,16 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130822155</v>
+        <v>130822160</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>424042</v>
+        <v>423800</v>
       </c>
       <c r="R27" t="n">
-        <v>7049125</v>
+        <v>7049140</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130822172</v>
+        <v>130822155</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>423678</v>
+        <v>424042</v>
       </c>
       <c r="R28" t="n">
-        <v>7048965</v>
+        <v>7049125</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130822160</v>
+        <v>130822172</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>423800</v>
+        <v>423678</v>
       </c>
       <c r="R29" t="n">
-        <v>7049140</v>
+        <v>7048965</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130822159</v>
+        <v>130823167</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4122,34 +4122,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423805</v>
+        <v>423730</v>
       </c>
       <c r="R31" t="n">
-        <v>7049145</v>
+        <v>7049099</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4186,7 +4189,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Relativt rikligt med bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4195,25 +4198,51 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130822158</v>
+        <v>130822154</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4248,10 +4277,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423797</v>
+        <v>423964</v>
       </c>
       <c r="R32" t="n">
-        <v>7049151</v>
+        <v>7049137</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4315,7 +4344,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130822154</v>
+        <v>130823152</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4344,16 +4373,24 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423964</v>
+        <v>423916</v>
       </c>
       <c r="R33" t="n">
-        <v>7049137</v>
+        <v>7049107</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4390,7 +4427,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4401,23 +4438,48 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130823152</v>
+        <v>130822158</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4446,24 +4508,16 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423916</v>
+        <v>423797</v>
       </c>
       <c r="R34" t="n">
-        <v>7049107</v>
+        <v>7049151</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4500,7 +4554,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4511,51 +4565,26 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130823167</v>
+        <v>130822159</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4563,37 +4592,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423730</v>
+        <v>423805</v>
       </c>
       <c r="R35" t="n">
-        <v>7049099</v>
+        <v>7049145</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4630,7 +4656,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Relativt rikligt med bålar på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4639,44 +4665,18 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>130823160</v>
+        <v>130823154</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2256,26 +2256,31 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2283,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>423881</v>
+        <v>423791</v>
       </c>
       <c r="R15" t="n">
-        <v>7049037</v>
+        <v>7049103</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2323,7 +2328,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
+          <t>Ringhack, färska, på gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2332,7 +2337,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2353,12 +2357,12 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2376,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>130823154</v>
+        <v>130823160</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2387,31 +2391,26 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
@@ -2419,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>423791</v>
+        <v>423881</v>
       </c>
       <c r="R16" t="n">
-        <v>7049103</v>
+        <v>7049037</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2459,7 +2458,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska, på gran.</t>
+          <t>Långväxta bålar på en stående död avbarkad gran med full längd.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2468,6 +2467,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2488,12 +2488,12 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2748,7 +2748,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130822182</v>
+        <v>130822180</v>
       </c>
       <c r="B19" t="n">
         <v>91804</v>
@@ -2783,10 +2783,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423748</v>
+        <v>423732</v>
       </c>
       <c r="R19" t="n">
-        <v>7049159</v>
+        <v>7049150</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2845,10 +2845,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130823158</v>
+        <v>130822182</v>
       </c>
       <c r="B20" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2856,33 +2856,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423730</v>
+        <v>423748</v>
       </c>
       <c r="R20" t="n">
-        <v>7049088</v>
+        <v>7049159</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2917,65 +2918,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130823156</v>
+        <v>130823158</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2983,31 +2953,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3015,10 +2976,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423747</v>
+        <v>423730</v>
       </c>
       <c r="R21" t="n">
-        <v>7049131</v>
+        <v>7049088</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3055,7 +3016,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3064,6 +3025,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3084,12 +3046,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Stående död trädstam/högstubbe</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Standing dead tree/snags # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3107,10 +3069,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130822180</v>
+        <v>130823169</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3118,34 +3080,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423732</v>
+        <v>423752</v>
       </c>
       <c r="R22" t="n">
-        <v>7049150</v>
+        <v>7049166</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3180,34 +3145,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Hyfsad mängd bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130823169</v>
+        <v>130823156</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3215,26 +3211,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3242,10 +3243,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423752</v>
+        <v>423747</v>
       </c>
       <c r="R23" t="n">
-        <v>7049166</v>
+        <v>7049131</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3282,7 +3283,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3291,7 +3292,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3312,12 +3312,12 @@
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -1848,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130823151</v>
+        <v>130823163</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,31 +1859,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1891,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>423970</v>
+        <v>423854</v>
       </c>
       <c r="R12" t="n">
-        <v>7049090</v>
+        <v>7049136</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1931,7 +1926,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1940,6 +1935,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1960,12 +1956,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1983,10 +1979,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130823163</v>
+        <v>130823151</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1994,26 +1990,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2021,10 +2022,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>423854</v>
+        <v>423970</v>
       </c>
       <c r="R13" t="n">
-        <v>7049136</v>
+        <v>7049090</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2061,7 +2062,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2070,7 +2071,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130822180</v>
+        <v>130823156</v>
       </c>
       <c r="B19" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,34 +2759,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423732</v>
+        <v>423747</v>
       </c>
       <c r="R19" t="n">
-        <v>7049150</v>
+        <v>7049131</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2821,6 +2829,11 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
+        </is>
+      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2829,26 +2842,51 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AH19" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130822182</v>
+        <v>130823158</v>
       </c>
       <c r="B20" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2856,34 +2894,33 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423748</v>
+        <v>423730</v>
       </c>
       <c r="R20" t="n">
-        <v>7049159</v>
+        <v>7049088</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2918,34 +2955,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130823158</v>
+        <v>130823169</v>
       </c>
       <c r="B21" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2953,19 +3021,23 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -2976,10 +3048,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423730</v>
+        <v>423752</v>
       </c>
       <c r="R21" t="n">
-        <v>7049088</v>
+        <v>7049166</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3016,7 +3088,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3046,12 +3118,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Stående död trädstam/högstubbe</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Standing dead tree/snags # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3069,10 +3141,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130823169</v>
+        <v>130822180</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3080,37 +3152,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423752</v>
+        <v>423732</v>
       </c>
       <c r="R22" t="n">
-        <v>7049166</v>
+        <v>7049150</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3145,65 +3214,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130823156</v>
+        <v>130822182</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3211,42 +3249,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423747</v>
+        <v>423748</v>
       </c>
       <c r="R23" t="n">
-        <v>7049131</v>
+        <v>7049159</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3281,11 +3311,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
-        </is>
-      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
@@ -3294,41 +3319,16 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130823167</v>
+        <v>130822154</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4122,37 +4122,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423730</v>
+        <v>423964</v>
       </c>
       <c r="R31" t="n">
-        <v>7049099</v>
+        <v>7049137</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4189,7 +4186,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Relativt rikligt med bålar på flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4198,51 +4195,25 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AH31" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM31" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130822154</v>
+        <v>130823152</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4271,16 +4242,24 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423964</v>
+        <v>423916</v>
       </c>
       <c r="R32" t="n">
-        <v>7049137</v>
+        <v>7049107</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4317,7 +4296,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4328,23 +4307,48 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130823152</v>
+        <v>130822158</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4373,24 +4377,16 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423916</v>
+        <v>423797</v>
       </c>
       <c r="R33" t="n">
-        <v>7049107</v>
+        <v>7049151</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4427,7 +4423,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4438,48 +4434,23 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130822158</v>
+        <v>130822159</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4514,10 +4485,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423797</v>
+        <v>423805</v>
       </c>
       <c r="R34" t="n">
-        <v>7049151</v>
+        <v>7049145</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4554,7 +4525,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4581,10 +4552,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>130822159</v>
+        <v>130823167</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4592,34 +4563,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>423805</v>
+        <v>423730</v>
       </c>
       <c r="R35" t="n">
-        <v>7049145</v>
+        <v>7049099</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4656,7 +4630,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Relativt rikligt med bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4665,18 +4639,44 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 62273-2025 artfynd.xlsx
+++ b/artfynd/A 62273-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130822178</v>
       </c>
       <c r="B2" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -780,7 +780,7 @@
         <v>130822176</v>
       </c>
       <c r="B3" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -976,10 +976,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>130823164</v>
+        <v>130822161</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -987,37 +987,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>423807</v>
+        <v>423797</v>
       </c>
       <c r="R5" t="n">
-        <v>7049107</v>
+        <v>7049125</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1054,7 +1051,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Relativt rikligt med garnlav på flera granar.</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1063,44 +1060,18 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>Branch on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1209,10 +1180,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>130822161</v>
+        <v>130823164</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1220,34 +1191,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>423797</v>
+        <v>423807</v>
       </c>
       <c r="R7" t="n">
-        <v>7049125</v>
+        <v>7049107</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1284,7 +1258,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Relativt rikligt med garnlav på flera granar.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1293,18 +1267,44 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
         <v>130823162</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>130823161</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>130823153</v>
+        <v>130823155</v>
       </c>
       <c r="B10" t="n">
         <v>57884</v>
@@ -1616,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>423817</v>
+        <v>423787</v>
       </c>
       <c r="R10" t="n">
-        <v>7049177</v>
+        <v>7049107</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1671,11 +1671,6 @@
       <c r="AH10" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
-        <is>
-          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -1713,7 +1708,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>130823155</v>
+        <v>130823153</v>
       </c>
       <c r="B11" t="n">
         <v>57884</v>
@@ -1756,10 +1751,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>423787</v>
+        <v>423817</v>
       </c>
       <c r="R11" t="n">
-        <v>7049107</v>
+        <v>7049177</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1796,7 +1791,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, längs några meter på en granstam. I flerskiktad granskog.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1811,6 +1806,11 @@
       <c r="AH11" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>Flerskiktad grandominerad skog med inslag av björk.</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -1848,10 +1848,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>130823163</v>
+        <v>130823151</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1859,26 +1859,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1886,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>423854</v>
+        <v>423970</v>
       </c>
       <c r="R12" t="n">
-        <v>7049136</v>
+        <v>7049090</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1926,7 +1931,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1935,7 +1940,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1956,12 +1960,12 @@
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1979,10 +1983,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>130823151</v>
+        <v>130823163</v>
       </c>
       <c r="B13" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1990,31 +1994,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2022,10 +2021,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>423970</v>
+        <v>423854</v>
       </c>
       <c r="R13" t="n">
-        <v>7049090</v>
+        <v>7049136</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2062,7 +2061,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Hyfsad mängd bålar på flera granar.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,6 +2070,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2091,12 +2091,12 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2117,7 +2117,7 @@
         <v>130823159</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>130823160</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2748,10 +2748,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>130823156</v>
+        <v>130822180</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2759,42 +2759,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>423747</v>
+        <v>423732</v>
       </c>
       <c r="R19" t="n">
-        <v>7049131</v>
+        <v>7049150</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2829,11 +2821,6 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
@@ -2842,51 +2829,26 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM19" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>130823158</v>
+        <v>130822182</v>
       </c>
       <c r="B20" t="n">
-        <v>91828</v>
+        <v>91805</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2894,33 +2856,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>423730</v>
+        <v>423748</v>
       </c>
       <c r="R20" t="n">
-        <v>7049088</v>
+        <v>7049159</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2955,65 +2918,34 @@
           <t>2026-01-21</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>130823169</v>
+        <v>130823156</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3021,26 +2953,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3048,10 +2985,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>423752</v>
+        <v>423747</v>
       </c>
       <c r="R21" t="n">
-        <v>7049166</v>
+        <v>7049131</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3088,7 +3025,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Hyfsad mängd bålar på flera granar.</t>
+          <t>Ringhack, på gran, äldre men faller möjligen inom ramen för färska.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3097,7 +3034,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3118,12 +3054,12 @@
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>Gren på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr"/>
@@ -3141,10 +3077,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130822180</v>
+        <v>130823158</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>91829</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3152,34 +3088,33 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>423732</v>
+        <v>423730</v>
       </c>
       <c r="R22" t="n">
-        <v>7049150</v>
+        <v>7049088</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3214,34 +3149,65 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Små fruktkroppar i en ca 3 meters granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>130822182</v>
+        <v>130823169</v>
       </c>
       <c r="B23" t="n">
-        <v>91804</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3249,34 +3215,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>423748</v>
+        <v>423752</v>
       </c>
       <c r="R23" t="n">
-        <v>7049159</v>
+        <v>7049166</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3311,31 +3280,62 @@
           <t>2026-01-21</t>
         </is>
       </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Hyfsad mängd bålar på flera granar.</t>
+        </is>
+      </c>
       <c r="AD23" t="b">
         <v>0</v>
       </c>
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Gren på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Branch on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130823150</v>
+        <v>130822170</v>
       </c>
       <c r="B24" t="n">
         <v>57884</v>
@@ -3364,24 +3364,16 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>423989</v>
+        <v>423780</v>
       </c>
       <c r="R24" t="n">
-        <v>7049100</v>
+        <v>7049026</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3418,7 +3410,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3429,48 +3421,23 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>130822170</v>
+        <v>130823150</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3499,16 +3466,24 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>423780</v>
+        <v>423989</v>
       </c>
       <c r="R25" t="n">
-        <v>7049026</v>
+        <v>7049100</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3545,7 +3520,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3556,16 +3531,41 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>130822160</v>
+        <v>130822155</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3709,10 +3709,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>423800</v>
+        <v>424042</v>
       </c>
       <c r="R27" t="n">
-        <v>7049140</v>
+        <v>7049125</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>130822155</v>
+        <v>130822172</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>424042</v>
+        <v>423678</v>
       </c>
       <c r="R28" t="n">
-        <v>7049125</v>
+        <v>7048965</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>130822172</v>
+        <v>130822160</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3913,10 +3913,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>423678</v>
+        <v>423800</v>
       </c>
       <c r="R29" t="n">
-        <v>7048965</v>
+        <v>7049140</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3983,7 +3983,7 @@
         <v>130823168</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>130822154</v>
+        <v>130822159</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -4146,10 +4146,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>423964</v>
+        <v>423805</v>
       </c>
       <c r="R31" t="n">
-        <v>7049137</v>
+        <v>7049145</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4213,7 +4213,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>130823152</v>
+        <v>130822158</v>
       </c>
       <c r="B32" t="n">
         <v>57884</v>
@@ -4242,24 +4242,16 @@
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Svartnäset Djupsjö, Jmt</t>
+          <t>Djupsjö ö, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>423916</v>
+        <v>423797</v>
       </c>
       <c r="R32" t="n">
-        <v>7049107</v>
+        <v>7049151</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4296,7 +4288,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4307,48 +4299,23 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AH32" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM32" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>130822158</v>
+        <v>130822154</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4383,10 +4350,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>423797</v>
+        <v>423964</v>
       </c>
       <c r="R33" t="n">
-        <v>7049151</v>
+        <v>7049137</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4450,7 +4417,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>130822159</v>
+        <v>130823152</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4479,16 +4446,24 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Djupsjö ö, Jmt</t>
+          <t>Svartnäset Djupsjö, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>423805</v>
+        <v>423916</v>
       </c>
       <c r="R34" t="n">
-        <v>7049145</v>
+        <v>7049107</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4525,7 +4500,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack färska</t>
+          <t>Ringhack, äldre, enstaka några meter upp på en gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4536,16 +4511,41 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4555,7 +4555,7 @@
         <v>130823167</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
